--- a/Teams Progress/batch1-2025-teams.xlsx
+++ b/Teams Progress/batch1-2025-teams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Professional Documents\Training-Teaching\bv-raju\training-materials\Teams Progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330B742C-4F83-4DBC-909C-25CCF995F74B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550FFA3B-D424-499A-97F5-A0CB8AED7DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="467">
   <si>
     <t>Student ID</t>
   </si>
@@ -1422,6 +1422,9 @@
   </si>
   <si>
     <t>23B01A4537</t>
+  </si>
+  <si>
+    <t>Git Team Creation</t>
   </si>
 </sst>
 </file>
@@ -1442,7 +1445,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1460,8 +1463,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1484,15 +1493,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1807,10 +1831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E148"/>
+  <dimension ref="A1:F148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H112" sqref="H112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1820,9 +1844,10 @@
     <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1838,8 +1863,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="4" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1856,7 +1884,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1873,7 +1901,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -1890,7 +1918,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -1907,7 +1935,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -1924,7 +1952,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
@@ -1941,7 +1969,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
@@ -1958,7 +1986,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>31</v>
       </c>
@@ -1974,8 +2002,9 @@
       <c r="E9" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>34</v>
       </c>
@@ -1992,7 +2021,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>37</v>
       </c>
@@ -2009,7 +2038,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>40</v>
       </c>
@@ -2026,7 +2055,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>44</v>
       </c>
@@ -2043,7 +2072,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>47</v>
       </c>
@@ -2060,7 +2089,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>50</v>
       </c>
@@ -2077,7 +2106,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>53</v>
       </c>

--- a/Teams Progress/batch1-2025-teams.xlsx
+++ b/Teams Progress/batch1-2025-teams.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Professional Documents\Training-Teaching\bv-raju\training-materials\Teams Progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550FFA3B-D424-499A-97F5-A0CB8AED7DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23293B1A-CF9D-4F47-B6E8-065C2A891661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Student-Teams" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Student-Teams'!$A$1:$E$148</definedName>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="465">
   <si>
     <t>Student ID</t>
   </si>
@@ -239,15 +238,6 @@
     <t>23B01A0586</t>
   </si>
   <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>YARLAGADDA JANAKI</t>
-  </si>
-  <si>
-    <t>23B01A42D1</t>
-  </si>
-  <si>
     <t>Team_2</t>
   </si>
   <si>
@@ -305,15 +295,6 @@
     <t>23B01A1232</t>
   </si>
   <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>YARRAVULA ROOSHITHA</t>
-  </si>
-  <si>
-    <t>23B01A42D2</t>
-  </si>
-  <si>
     <t>100</t>
   </si>
   <si>
@@ -1238,15 +1219,6 @@
     <t>23B01A0548</t>
   </si>
   <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>VELUPURI GANGA GOWRI</t>
-  </si>
-  <si>
-    <t>23B01A42C6</t>
-  </si>
-  <si>
     <t>120</t>
   </si>
   <si>
@@ -1425,6 +1397,27 @@
   </si>
   <si>
     <t>Git Team Creation</t>
+  </si>
+  <si>
+    <t>MUNGANDA DIVIJA</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>23B01A4280</t>
+  </si>
+  <si>
+    <t>23B01A4298</t>
+  </si>
+  <si>
+    <t>PERURI BHAVYA RATNA</t>
+  </si>
+  <si>
+    <t>VASAMSETTI VIJAYA KRISHNA TAPASWI</t>
+  </si>
+  <si>
+    <t>23B01A42C4</t>
   </si>
 </sst>
 </file>
@@ -1834,7 +1827,7 @@
   <dimension ref="A1:F148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H112" sqref="H112"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1864,7 +1857,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -2210,2335 +2203,2171 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>71</v>
+        <v>459</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>72</v>
+        <v>458</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>73</v>
+        <v>460</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>74</v>
+        <v>379</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>93</v>
+        <v>459</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>94</v>
+        <v>462</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>95</v>
+        <v>461</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+      <c r="F66" s="5"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E73" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>230</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>236</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B99" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C99" s="2" t="s">
         <v>307</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>313</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B102" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C102" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="D100" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="2" t="s">
+      <c r="D102" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B101" s="2" t="s">
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="B103" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="D101" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="2" t="s">
+      <c r="C103" s="2" t="s">
         <v>320</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>326</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E103" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C104" s="2" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>329</v>
-      </c>
       <c r="D104" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+      <c r="F110" s="5"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>354</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="F112" s="5"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>404</v>
+        <v>459</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>405</v>
+        <v>463</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>406</v>
+        <v>464</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+        <v>379</v>
+      </c>
+      <c r="F130" s="5"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="D133" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E133" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="F133" s="5"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C135" s="2" t="s">
         <v>416</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A134" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A135" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>425</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E144" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C145" s="2" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A145" s="2" t="s">
+      <c r="D145" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B148" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="C145" s="2" t="s">
+      <c r="C148" s="3" t="s">
         <v>456</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A146" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A147" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A148" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="B148" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>465</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>447</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="F148" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E148" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A400A7-C5E1-47EE-945C-E66DF8A23769}">
-  <dimension ref="A1:E15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <f>COUNTIF($B$1:$B$15,D2)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>323</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E6" si="0">COUNTIF($B$1:$B$15,D3)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>354</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>385</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>416</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>9</v>
-      </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Teams Progress/batch1-2025-teams.xlsx
+++ b/Teams Progress/batch1-2025-teams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Professional Documents\Training-Teaching\bv-raju\training-materials\Teams Progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23293B1A-CF9D-4F47-B6E8-065C2A891661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1ABB15F-9A79-4238-A0F0-E897941B9F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Student-Teams" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Student-Teams'!$A$1:$E$148</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Student-Teams'!$A$1:$E$149</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="467">
   <si>
     <t>Student ID</t>
   </si>
@@ -1418,6 +1418,12 @@
   </si>
   <si>
     <t>23B01A42C4</t>
+  </si>
+  <si>
+    <t>N.Akanksha Sai</t>
+  </si>
+  <si>
+    <t>23B01A05C7</t>
   </si>
 </sst>
 </file>
@@ -1501,7 +1507,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1510,11 +1516,21 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1824,10 +1840,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F148"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:F149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1860,7 +1877,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1877,7 +1894,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1894,7 +1911,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -1911,7 +1928,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -1928,7 +1945,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -1945,7 +1962,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
@@ -1962,7 +1979,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
@@ -1997,7 +2014,7 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>34</v>
       </c>
@@ -2014,7 +2031,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>37</v>
       </c>
@@ -2031,7 +2048,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>40</v>
       </c>
@@ -2048,7 +2065,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>44</v>
       </c>
@@ -2065,7 +2082,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>47</v>
       </c>
@@ -2099,7 +2116,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>53</v>
       </c>
@@ -2116,7 +2133,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>56</v>
       </c>
@@ -2133,7 +2150,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>59</v>
       </c>
@@ -2150,7 +2167,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>62</v>
       </c>
@@ -2167,7 +2184,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>65</v>
       </c>
@@ -2184,7 +2201,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>68</v>
       </c>
@@ -2201,7 +2218,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>459</v>
       </c>
@@ -2218,7 +2235,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>72</v>
       </c>
@@ -2235,7 +2252,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>75</v>
       </c>
@@ -2252,7 +2269,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>78</v>
       </c>
@@ -2268,8 +2285,9 @@
       <c r="E25" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>81</v>
       </c>
@@ -2286,7 +2304,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>84</v>
       </c>
@@ -2303,7 +2321,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>87</v>
       </c>
@@ -2320,7 +2338,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>459</v>
       </c>
@@ -2337,7 +2355,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>90</v>
       </c>
@@ -2354,7 +2372,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>93</v>
       </c>
@@ -2371,7 +2389,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>96</v>
       </c>
@@ -2388,7 +2406,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>101</v>
       </c>
@@ -2405,7 +2423,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>104</v>
       </c>
@@ -2422,7 +2440,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>107</v>
       </c>
@@ -2439,7 +2457,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>110</v>
       </c>
@@ -2455,8 +2473,9 @@
       <c r="E36" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F36" s="5"/>
+    </row>
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>113</v>
       </c>
@@ -2473,7 +2492,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>116</v>
       </c>
@@ -2490,7 +2509,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>119</v>
       </c>
@@ -2507,7 +2526,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>122</v>
       </c>
@@ -2524,7 +2543,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>125</v>
       </c>
@@ -2541,7 +2560,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>128</v>
       </c>
@@ -2558,7 +2577,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>132</v>
       </c>
@@ -2575,7 +2594,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>135</v>
       </c>
@@ -2592,7 +2611,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>138</v>
       </c>
@@ -2609,7 +2628,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>141</v>
       </c>
@@ -2626,7 +2645,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>144</v>
       </c>
@@ -2642,8 +2661,9 @@
       <c r="E47" s="3" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F47" s="5"/>
+    </row>
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>147</v>
       </c>
@@ -2660,7 +2680,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>150</v>
       </c>
@@ -2677,7 +2697,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>153</v>
       </c>
@@ -2694,7 +2714,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>156</v>
       </c>
@@ -2711,7 +2731,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>159</v>
       </c>
@@ -2728,7 +2748,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>163</v>
       </c>
@@ -2745,7 +2765,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>166</v>
       </c>
@@ -2762,7 +2782,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>169</v>
       </c>
@@ -2779,7 +2799,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>172</v>
       </c>
@@ -2796,7 +2816,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>175</v>
       </c>
@@ -2813,7 +2833,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>178</v>
       </c>
@@ -2829,8 +2849,9 @@
       <c r="E58" s="3" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F58" s="5"/>
+    </row>
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>181</v>
       </c>
@@ -2847,7 +2868,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>184</v>
       </c>
@@ -2864,7 +2885,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>187</v>
       </c>
@@ -2881,7 +2902,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>190</v>
       </c>
@@ -2898,7 +2919,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>194</v>
       </c>
@@ -2915,7 +2936,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>197</v>
       </c>
@@ -2932,7 +2953,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>200</v>
       </c>
@@ -2967,7 +2988,7 @@
       </c>
       <c r="F66" s="5"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>206</v>
       </c>
@@ -2984,7 +3005,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>209</v>
       </c>
@@ -3001,7 +3022,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>212</v>
       </c>
@@ -3018,7 +3039,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>215</v>
       </c>
@@ -3035,7 +3056,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>218</v>
       </c>
@@ -3052,7 +3073,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>221</v>
       </c>
@@ -3069,7 +3090,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>225</v>
       </c>
@@ -3086,7 +3107,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>228</v>
       </c>
@@ -3120,7 +3141,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>234</v>
       </c>
@@ -3137,7 +3158,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>237</v>
       </c>
@@ -3154,7 +3175,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>240</v>
       </c>
@@ -3171,7 +3192,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>243</v>
       </c>
@@ -3188,7 +3209,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>246</v>
       </c>
@@ -3205,7 +3226,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>249</v>
       </c>
@@ -3222,7 +3243,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>252</v>
       </c>
@@ -3239,7 +3260,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>256</v>
       </c>
@@ -3256,7 +3277,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>259</v>
       </c>
@@ -3273,7 +3294,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>262</v>
       </c>
@@ -3290,7 +3311,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>265</v>
       </c>
@@ -3307,7 +3328,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>268</v>
       </c>
@@ -3323,8 +3344,9 @@
       <c r="E87" s="3" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F87" s="5"/>
+    </row>
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>271</v>
       </c>
@@ -3341,7 +3363,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>274</v>
       </c>
@@ -3358,7 +3380,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>277</v>
       </c>
@@ -3375,7 +3397,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>280</v>
       </c>
@@ -3392,7 +3414,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>283</v>
       </c>
@@ -3409,7 +3431,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>287</v>
       </c>
@@ -3426,7 +3448,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>290</v>
       </c>
@@ -3443,7 +3465,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>293</v>
       </c>
@@ -3460,7 +3482,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>296</v>
       </c>
@@ -3493,8 +3515,9 @@
       <c r="E97" s="3" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F97" s="5"/>
+    </row>
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>302</v>
       </c>
@@ -3511,7 +3534,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>305</v>
       </c>
@@ -3528,7 +3551,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>308</v>
       </c>
@@ -3545,7 +3568,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>311</v>
       </c>
@@ -3562,7 +3585,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>314</v>
       </c>
@@ -3579,7 +3602,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>318</v>
       </c>
@@ -3596,7 +3619,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>321</v>
       </c>
@@ -3613,7 +3636,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>324</v>
       </c>
@@ -3630,7 +3653,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>327</v>
       </c>
@@ -3647,7 +3670,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>330</v>
       </c>
@@ -3664,7 +3687,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>333</v>
       </c>
@@ -3681,7 +3704,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>336</v>
       </c>
@@ -3716,7 +3739,7 @@
       </c>
       <c r="F110" s="5"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>342</v>
       </c>
@@ -3751,7 +3774,7 @@
       </c>
       <c r="F112" s="5"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>349</v>
       </c>
@@ -3768,7 +3791,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>352</v>
       </c>
@@ -3785,7 +3808,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>355</v>
       </c>
@@ -3802,7 +3825,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>358</v>
       </c>
@@ -3819,7 +3842,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>361</v>
       </c>
@@ -3836,7 +3859,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>364</v>
       </c>
@@ -3853,7 +3876,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>367</v>
       </c>
@@ -3870,7 +3893,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>370</v>
       </c>
@@ -3887,7 +3910,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>373</v>
       </c>
@@ -3904,7 +3927,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>376</v>
       </c>
@@ -3921,7 +3944,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>380</v>
       </c>
@@ -3938,7 +3961,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>383</v>
       </c>
@@ -3955,7 +3978,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>386</v>
       </c>
@@ -3972,7 +3995,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>389</v>
       </c>
@@ -3989,7 +4012,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>392</v>
       </c>
@@ -4006,7 +4029,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>395</v>
       </c>
@@ -4023,7 +4046,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>459</v>
       </c>
@@ -4058,7 +4081,7 @@
       </c>
       <c r="F130" s="5"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>401</v>
       </c>
@@ -4075,7 +4098,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>404</v>
       </c>
@@ -4110,7 +4133,7 @@
       </c>
       <c r="F133" s="5"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>411</v>
       </c>
@@ -4127,7 +4150,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>414</v>
       </c>
@@ -4144,7 +4167,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>417</v>
       </c>
@@ -4161,7 +4184,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>420</v>
       </c>
@@ -4178,7 +4201,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>423</v>
       </c>
@@ -4195,7 +4218,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>426</v>
       </c>
@@ -4212,7 +4235,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>429</v>
       </c>
@@ -4229,7 +4252,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>432</v>
       </c>
@@ -4246,7 +4269,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>435</v>
       </c>
@@ -4263,7 +4286,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>439</v>
       </c>
@@ -4280,7 +4303,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>442</v>
       </c>
@@ -4297,7 +4320,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>445</v>
       </c>
@@ -4314,7 +4337,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>448</v>
       </c>
@@ -4331,7 +4354,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>451</v>
       </c>
@@ -4366,8 +4389,30 @@
       </c>
       <c r="F148" s="5"/>
     </row>
+    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="B149" t="s">
+        <v>465</v>
+      </c>
+      <c r="C149" t="s">
+        <v>466</v>
+      </c>
+      <c r="D149" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E148" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E149" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <colorFilter dxfId="0"/>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Teams Progress/batch1-2025-teams.xlsx
+++ b/Teams Progress/batch1-2025-teams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Professional Documents\Training-Teaching\bv-raju\training-materials\Teams Progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1ABB15F-9A79-4238-A0F0-E897941B9F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775754EC-822C-4695-95DD-3824CC6DEC25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1844,7 +1844,7 @@
   <dimension ref="A1:F149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F75" sqref="F75"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3140,6 +3140,7 @@
       <c r="E75" s="3" t="s">
         <v>224</v>
       </c>
+      <c r="F75" s="5"/>
     </row>
     <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">

--- a/Teams Progress/batch1-2025-teams.xlsx
+++ b/Teams Progress/batch1-2025-teams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Professional Documents\Training-Teaching\bv-raju\training-materials\Teams Progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775754EC-822C-4695-95DD-3824CC6DEC25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E596386F-E634-4049-9D91-C7DC30EC0713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1521,16 +1521,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1840,7 +1831,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:F149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1877,7 +1867,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1894,7 +1884,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1911,7 +1901,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -1928,7 +1918,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -1945,7 +1935,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -1962,7 +1952,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
@@ -1979,7 +1969,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
@@ -2014,7 +2004,7 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>34</v>
       </c>
@@ -2031,7 +2021,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>37</v>
       </c>
@@ -2048,7 +2038,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>40</v>
       </c>
@@ -2065,7 +2055,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>44</v>
       </c>
@@ -2082,7 +2072,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>47</v>
       </c>
@@ -2116,7 +2106,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>53</v>
       </c>
@@ -2133,7 +2123,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>56</v>
       </c>
@@ -2150,7 +2140,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>59</v>
       </c>
@@ -2167,7 +2157,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>62</v>
       </c>
@@ -2184,7 +2174,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>65</v>
       </c>
@@ -2201,7 +2191,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>68</v>
       </c>
@@ -2218,7 +2208,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>459</v>
       </c>
@@ -2235,7 +2225,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>72</v>
       </c>
@@ -2252,7 +2242,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>75</v>
       </c>
@@ -2287,7 +2277,7 @@
       </c>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>81</v>
       </c>
@@ -2304,7 +2294,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>84</v>
       </c>
@@ -2321,7 +2311,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>87</v>
       </c>
@@ -2338,7 +2328,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>459</v>
       </c>
@@ -2355,7 +2345,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>90</v>
       </c>
@@ -2372,7 +2362,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>93</v>
       </c>
@@ -2389,7 +2379,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>96</v>
       </c>
@@ -2406,7 +2396,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>101</v>
       </c>
@@ -2423,7 +2413,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>104</v>
       </c>
@@ -2440,7 +2430,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>107</v>
       </c>
@@ -2475,7 +2465,7 @@
       </c>
       <c r="F36" s="5"/>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>113</v>
       </c>
@@ -2492,7 +2482,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>116</v>
       </c>
@@ -2509,7 +2499,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>119</v>
       </c>
@@ -2526,7 +2516,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>122</v>
       </c>
@@ -2543,7 +2533,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>125</v>
       </c>
@@ -2560,7 +2550,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>128</v>
       </c>
@@ -2577,7 +2567,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>132</v>
       </c>
@@ -2594,7 +2584,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>135</v>
       </c>
@@ -2611,7 +2601,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>138</v>
       </c>
@@ -2628,7 +2618,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>141</v>
       </c>
@@ -2663,7 +2653,7 @@
       </c>
       <c r="F47" s="5"/>
     </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>147</v>
       </c>
@@ -2680,7 +2670,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>150</v>
       </c>
@@ -2697,7 +2687,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>153</v>
       </c>
@@ -2714,7 +2704,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>156</v>
       </c>
@@ -2731,7 +2721,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>159</v>
       </c>
@@ -2748,7 +2738,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>163</v>
       </c>
@@ -2765,7 +2755,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>166</v>
       </c>
@@ -2782,7 +2772,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>169</v>
       </c>
@@ -2799,7 +2789,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>172</v>
       </c>
@@ -2816,7 +2806,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>175</v>
       </c>
@@ -2851,7 +2841,7 @@
       </c>
       <c r="F58" s="5"/>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>181</v>
       </c>
@@ -2868,7 +2858,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>184</v>
       </c>
@@ -2885,7 +2875,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>187</v>
       </c>
@@ -2902,7 +2892,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>190</v>
       </c>
@@ -2919,7 +2909,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>194</v>
       </c>
@@ -2936,7 +2926,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>197</v>
       </c>
@@ -2953,7 +2943,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>200</v>
       </c>
@@ -2988,7 +2978,7 @@
       </c>
       <c r="F66" s="5"/>
     </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>206</v>
       </c>
@@ -3005,7 +2995,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>209</v>
       </c>
@@ -3022,7 +3012,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>212</v>
       </c>
@@ -3039,7 +3029,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>215</v>
       </c>
@@ -3056,7 +3046,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>218</v>
       </c>
@@ -3073,7 +3063,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>221</v>
       </c>
@@ -3090,7 +3080,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>225</v>
       </c>
@@ -3107,7 +3097,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>228</v>
       </c>
@@ -3142,7 +3132,7 @@
       </c>
       <c r="F75" s="5"/>
     </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>234</v>
       </c>
@@ -3159,7 +3149,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>237</v>
       </c>
@@ -3176,7 +3166,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>240</v>
       </c>
@@ -3193,7 +3183,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>243</v>
       </c>
@@ -3210,7 +3200,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>246</v>
       </c>
@@ -3227,7 +3217,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>249</v>
       </c>
@@ -3244,7 +3234,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>252</v>
       </c>
@@ -3261,7 +3251,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>256</v>
       </c>
@@ -3278,7 +3268,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>259</v>
       </c>
@@ -3295,7 +3285,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>262</v>
       </c>
@@ -3312,7 +3302,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>265</v>
       </c>
@@ -3347,7 +3337,7 @@
       </c>
       <c r="F87" s="5"/>
     </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>271</v>
       </c>
@@ -3364,7 +3354,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>274</v>
       </c>
@@ -3381,7 +3371,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>277</v>
       </c>
@@ -3398,7 +3388,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>280</v>
       </c>
@@ -3415,7 +3405,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>283</v>
       </c>
@@ -3432,7 +3422,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>287</v>
       </c>
@@ -3449,7 +3439,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>290</v>
       </c>
@@ -3466,7 +3456,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>293</v>
       </c>
@@ -3483,7 +3473,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>296</v>
       </c>
@@ -3518,7 +3508,7 @@
       </c>
       <c r="F97" s="5"/>
     </row>
-    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>302</v>
       </c>
@@ -3535,7 +3525,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>305</v>
       </c>
@@ -3552,7 +3542,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>308</v>
       </c>
@@ -3569,7 +3559,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>311</v>
       </c>
@@ -3586,7 +3576,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>314</v>
       </c>
@@ -3603,7 +3593,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>318</v>
       </c>
@@ -3620,7 +3610,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>321</v>
       </c>
@@ -3637,7 +3627,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>324</v>
       </c>
@@ -3654,7 +3644,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>327</v>
       </c>
@@ -3671,7 +3661,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>330</v>
       </c>
@@ -3688,7 +3678,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>333</v>
       </c>
@@ -3705,7 +3695,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>336</v>
       </c>
@@ -3740,7 +3730,7 @@
       </c>
       <c r="F110" s="5"/>
     </row>
-    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>342</v>
       </c>
@@ -3775,7 +3765,7 @@
       </c>
       <c r="F112" s="5"/>
     </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>349</v>
       </c>
@@ -3792,7 +3782,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>352</v>
       </c>
@@ -3809,7 +3799,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>355</v>
       </c>
@@ -3826,7 +3816,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>358</v>
       </c>
@@ -3843,7 +3833,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>361</v>
       </c>
@@ -3860,7 +3850,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>364</v>
       </c>
@@ -3877,7 +3867,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>367</v>
       </c>
@@ -3894,7 +3884,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>370</v>
       </c>
@@ -3911,7 +3901,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>373</v>
       </c>
@@ -3928,7 +3918,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>376</v>
       </c>
@@ -3945,7 +3935,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>380</v>
       </c>
@@ -3962,7 +3952,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>383</v>
       </c>
@@ -3979,7 +3969,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>386</v>
       </c>
@@ -3996,7 +3986,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>389</v>
       </c>
@@ -4013,7 +4003,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>392</v>
       </c>
@@ -4030,7 +4020,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>395</v>
       </c>
@@ -4047,7 +4037,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>459</v>
       </c>
@@ -4082,7 +4072,7 @@
       </c>
       <c r="F130" s="5"/>
     </row>
-    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>401</v>
       </c>
@@ -4099,7 +4089,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>404</v>
       </c>
@@ -4134,7 +4124,7 @@
       </c>
       <c r="F133" s="5"/>
     </row>
-    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>411</v>
       </c>
@@ -4151,7 +4141,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>414</v>
       </c>
@@ -4168,7 +4158,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>417</v>
       </c>
@@ -4185,7 +4175,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>420</v>
       </c>
@@ -4202,7 +4192,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>423</v>
       </c>
@@ -4219,7 +4209,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>426</v>
       </c>
@@ -4236,7 +4226,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>429</v>
       </c>
@@ -4253,7 +4243,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>432</v>
       </c>
@@ -4270,7 +4260,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>435</v>
       </c>
@@ -4287,7 +4277,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>439</v>
       </c>
@@ -4304,7 +4294,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>442</v>
       </c>
@@ -4321,7 +4311,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>445</v>
       </c>
@@ -4338,7 +4328,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>448</v>
       </c>
@@ -4355,7 +4345,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>451</v>
       </c>
@@ -4390,7 +4380,7 @@
       </c>
       <c r="F148" s="5"/>
     </row>
-    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="6" t="s">
         <v>459</v>
       </c>
@@ -4408,11 +4398,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E149" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="1">
-      <colorFilter dxfId="0"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E149" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Teams Progress/batch1-2025-teams.xlsx
+++ b/Teams Progress/batch1-2025-teams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Professional Documents\Training-Teaching\bv-raju\training-materials\Teams Progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E596386F-E634-4049-9D91-C7DC30EC0713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5981D66-5765-46FE-8CD1-7C5557D3008E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="466">
   <si>
     <t>Student ID</t>
   </si>
@@ -430,15 +430,6 @@
     <t>23B01A12J3</t>
   </si>
   <si>
-    <t>132</t>
-  </si>
-  <si>
-    <t>MOGALLAPU PADMA SRI DEVI</t>
-  </si>
-  <si>
-    <t>23B01A12B3</t>
-  </si>
-  <si>
     <t>73</t>
   </si>
   <si>
@@ -1424,6 +1415,12 @@
   </si>
   <si>
     <t>23B01A05C7</t>
+  </si>
+  <si>
+    <t>23B01A12G3</t>
+  </si>
+  <si>
+    <t>Shaik Sumiya</t>
   </si>
 </sst>
 </file>
@@ -1834,7 +1831,7 @@
   <dimension ref="A1:F149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1864,7 +1861,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -2210,19 +2207,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -2330,13 +2327,13 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>462</v>
-      </c>
       <c r="C29" s="2" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>24</v>
@@ -2586,13 +2583,13 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>135</v>
+        <v>456</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>136</v>
+        <v>465</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>137</v>
+        <v>464</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>8</v>
@@ -2603,13 +2600,13 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>17</v>
@@ -2620,13 +2617,13 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>17</v>
@@ -2637,13 +2634,13 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>8</v>
@@ -2655,13 +2652,13 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>99</v>
@@ -2672,13 +2669,13 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>13</v>
@@ -2689,13 +2686,13 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>13</v>
@@ -2706,13 +2703,13 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>17</v>
@@ -2723,1329 +2720,1329 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F58" s="5"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F66" s="5"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F75" s="5"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F87" s="5"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F97" s="5"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>314</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F110" s="5"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F112" s="5"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>24</v>
@@ -4056,345 +4053,345 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F130" s="5"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D133" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F133" s="5"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="F148" s="5"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="6" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B149" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C149" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D149" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/Teams Progress/batch1-2025-teams.xlsx
+++ b/Teams Progress/batch1-2025-teams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Professional Documents\Training-Teaching\bv-raju\training-materials\Teams Progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5981D66-5765-46FE-8CD1-7C5557D3008E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105DAF78-109B-4042-8307-1A3B453B39DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1828,10 +1828,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+      <selection activeCell="K154" sqref="K154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1864,7 +1865,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1881,7 +1882,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1898,7 +1899,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -1915,7 +1916,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -1932,7 +1933,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -1949,7 +1950,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
@@ -1966,7 +1967,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
@@ -1983,7 +1984,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>31</v>
       </c>
@@ -2001,7 +2002,7 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>34</v>
       </c>
@@ -2018,7 +2019,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>37</v>
       </c>
@@ -2035,7 +2036,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>40</v>
       </c>
@@ -2052,7 +2053,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>44</v>
       </c>
@@ -2069,7 +2070,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>47</v>
       </c>
@@ -2086,7 +2087,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>50</v>
       </c>
@@ -2103,7 +2104,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>53</v>
       </c>
@@ -2120,7 +2121,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>56</v>
       </c>
@@ -2137,7 +2138,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>59</v>
       </c>
@@ -2154,7 +2155,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>62</v>
       </c>
@@ -2171,7 +2172,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>65</v>
       </c>
@@ -2188,7 +2189,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>68</v>
       </c>
@@ -2205,7 +2206,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>456</v>
       </c>
@@ -2222,7 +2223,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>72</v>
       </c>
@@ -2239,7 +2240,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>75</v>
       </c>
@@ -2256,7 +2257,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>78</v>
       </c>
@@ -2274,7 +2275,7 @@
       </c>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>81</v>
       </c>
@@ -2291,7 +2292,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>84</v>
       </c>
@@ -2308,7 +2309,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>87</v>
       </c>
@@ -2325,7 +2326,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>456</v>
       </c>
@@ -2342,7 +2343,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>90</v>
       </c>
@@ -2359,7 +2360,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>93</v>
       </c>
@@ -2376,7 +2377,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>96</v>
       </c>
@@ -2393,7 +2394,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>101</v>
       </c>
@@ -2410,7 +2411,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>104</v>
       </c>
@@ -2427,7 +2428,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>107</v>
       </c>
@@ -2444,7 +2445,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>110</v>
       </c>
@@ -2462,7 +2463,7 @@
       </c>
       <c r="F36" s="5"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>113</v>
       </c>
@@ -2479,7 +2480,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>116</v>
       </c>
@@ -2496,7 +2497,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>119</v>
       </c>
@@ -2513,7 +2514,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>122</v>
       </c>
@@ -2530,7 +2531,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>125</v>
       </c>
@@ -2718,7 +2719,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>156</v>
       </c>
@@ -2735,7 +2736,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>160</v>
       </c>
@@ -2752,7 +2753,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>163</v>
       </c>
@@ -2769,7 +2770,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>166</v>
       </c>
@@ -2786,7 +2787,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>169</v>
       </c>
@@ -2803,7 +2804,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>172</v>
       </c>
@@ -2820,7 +2821,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>175</v>
       </c>
@@ -2838,7 +2839,7 @@
       </c>
       <c r="F58" s="5"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>178</v>
       </c>
@@ -2855,7 +2856,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>181</v>
       </c>
@@ -2872,7 +2873,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>184</v>
       </c>
@@ -2889,7 +2890,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>187</v>
       </c>
@@ -2906,7 +2907,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>191</v>
       </c>
@@ -2923,7 +2924,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>194</v>
       </c>
@@ -2940,7 +2941,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>197</v>
       </c>
@@ -2957,7 +2958,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>200</v>
       </c>
@@ -2975,7 +2976,7 @@
       </c>
       <c r="F66" s="5"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>203</v>
       </c>
@@ -2992,7 +2993,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>206</v>
       </c>
@@ -3009,7 +3010,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>209</v>
       </c>
@@ -3026,7 +3027,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>212</v>
       </c>
@@ -3043,7 +3044,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>215</v>
       </c>
@@ -3060,7 +3061,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>218</v>
       </c>
@@ -3077,7 +3078,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>222</v>
       </c>
@@ -3094,7 +3095,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>225</v>
       </c>
@@ -3111,7 +3112,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>228</v>
       </c>
@@ -3129,7 +3130,7 @@
       </c>
       <c r="F75" s="5"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>231</v>
       </c>
@@ -3146,7 +3147,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>234</v>
       </c>
@@ -3163,7 +3164,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>237</v>
       </c>
@@ -3180,7 +3181,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>240</v>
       </c>
@@ -3197,7 +3198,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>243</v>
       </c>
@@ -3214,7 +3215,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>246</v>
       </c>
@@ -3231,7 +3232,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>249</v>
       </c>
@@ -3248,7 +3249,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>253</v>
       </c>
@@ -3265,7 +3266,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>256</v>
       </c>
@@ -3282,7 +3283,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>259</v>
       </c>
@@ -3299,7 +3300,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>262</v>
       </c>
@@ -3316,7 +3317,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>265</v>
       </c>
@@ -3334,7 +3335,7 @@
       </c>
       <c r="F87" s="5"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>268</v>
       </c>
@@ -3351,7 +3352,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>271</v>
       </c>
@@ -3368,7 +3369,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>274</v>
       </c>
@@ -3385,7 +3386,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>277</v>
       </c>
@@ -3402,7 +3403,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>280</v>
       </c>
@@ -3419,7 +3420,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>284</v>
       </c>
@@ -3436,7 +3437,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>287</v>
       </c>
@@ -3453,7 +3454,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>290</v>
       </c>
@@ -3470,7 +3471,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>293</v>
       </c>
@@ -3487,7 +3488,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>296</v>
       </c>
@@ -3505,7 +3506,7 @@
       </c>
       <c r="F97" s="5"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>299</v>
       </c>
@@ -3522,7 +3523,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>302</v>
       </c>
@@ -3539,7 +3540,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>305</v>
       </c>
@@ -3556,7 +3557,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>308</v>
       </c>
@@ -3573,7 +3574,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>311</v>
       </c>
@@ -3590,7 +3591,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>315</v>
       </c>
@@ -3607,7 +3608,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>318</v>
       </c>
@@ -3624,7 +3625,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>321</v>
       </c>
@@ -3641,7 +3642,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>324</v>
       </c>
@@ -3658,7 +3659,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>327</v>
       </c>
@@ -3675,7 +3676,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>330</v>
       </c>
@@ -3692,7 +3693,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>333</v>
       </c>
@@ -3709,7 +3710,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
         <v>336</v>
       </c>
@@ -3727,7 +3728,7 @@
       </c>
       <c r="F110" s="5"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>339</v>
       </c>
@@ -3744,7 +3745,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
         <v>342</v>
       </c>
@@ -3762,7 +3763,7 @@
       </c>
       <c r="F112" s="5"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>346</v>
       </c>
@@ -3779,7 +3780,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>349</v>
       </c>
@@ -3796,7 +3797,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>352</v>
       </c>
@@ -3813,7 +3814,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>355</v>
       </c>
@@ -3830,7 +3831,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>358</v>
       </c>
@@ -3847,7 +3848,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>361</v>
       </c>
@@ -3864,7 +3865,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>364</v>
       </c>
@@ -3881,7 +3882,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>367</v>
       </c>
@@ -3898,7 +3899,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>370</v>
       </c>
@@ -3915,7 +3916,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>373</v>
       </c>
@@ -3932,7 +3933,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>377</v>
       </c>
@@ -3949,7 +3950,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>380</v>
       </c>
@@ -3966,7 +3967,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>383</v>
       </c>
@@ -3983,7 +3984,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>386</v>
       </c>
@@ -4000,7 +4001,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>389</v>
       </c>
@@ -4017,7 +4018,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>392</v>
       </c>
@@ -4034,7 +4035,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>456</v>
       </c>
@@ -4051,7 +4052,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
         <v>395</v>
       </c>
@@ -4069,7 +4070,7 @@
       </c>
       <c r="F130" s="5"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>398</v>
       </c>
@@ -4086,7 +4087,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>401</v>
       </c>
@@ -4103,7 +4104,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
         <v>405</v>
       </c>
@@ -4121,7 +4122,7 @@
       </c>
       <c r="F133" s="5"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>408</v>
       </c>
@@ -4138,7 +4139,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>411</v>
       </c>
@@ -4155,7 +4156,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>414</v>
       </c>
@@ -4172,7 +4173,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>417</v>
       </c>
@@ -4189,7 +4190,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>420</v>
       </c>
@@ -4206,7 +4207,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>423</v>
       </c>
@@ -4223,7 +4224,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>426</v>
       </c>
@@ -4240,7 +4241,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>429</v>
       </c>
@@ -4257,7 +4258,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>432</v>
       </c>
@@ -4274,7 +4275,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>436</v>
       </c>
@@ -4291,7 +4292,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>439</v>
       </c>
@@ -4308,7 +4309,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>442</v>
       </c>
@@ -4325,7 +4326,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>445</v>
       </c>
@@ -4342,7 +4343,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>448</v>
       </c>
@@ -4359,7 +4360,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
         <v>451</v>
       </c>
@@ -4377,7 +4378,7 @@
       </c>
       <c r="F148" s="5"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="6" t="s">
         <v>456</v>
       </c>
@@ -4395,7 +4396,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E149" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E149" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Team_4"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
